--- a/FinalProject/Codebase/datasource/ds.xlsx
+++ b/FinalProject/Codebase/datasource/ds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/GitHub/DataScience/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/Data Science Course - UoT/FinalProject/Codebase/datasource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7D8088-83D8-F64D-9045-28C63F0A98A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5CC07-596B-AF42-A886-162DDF5B0394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>Mathematcs</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Kafta</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -699,16 +699,16 @@
         <v>-1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -716,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -733,16 +733,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -750,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -767,16 +767,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -784,16 +784,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -818,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -835,16 +835,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -852,16 +852,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,16 +869,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,16 +886,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -903,16 +903,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -920,16 +920,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,16 +937,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -954,16 +954,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -971,16 +971,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,16 +988,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,16 +1005,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1022,16 +1022,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1039,16 +1039,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,16 +1056,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,16 +1073,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1090,16 +1090,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1107,16 +1107,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,16 +1124,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1141,16 +1141,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1158,16 +1158,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1175,16 +1175,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1192,16 +1192,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1209,16 +1209,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,16 +1226,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1243,16 +1243,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1260,16 +1260,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,16 +1277,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1294,16 +1294,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1311,16 +1311,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1328,16 +1328,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1345,16 +1345,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1362,16 +1362,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1379,16 +1379,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1396,16 +1396,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,16 +1413,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,16 +1430,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,16 +1447,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,16 +1464,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1481,16 +1481,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,16 +1498,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,16 +1515,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,16 +1532,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1549,16 +1549,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,16 +1566,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,16 +1583,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,16 +1600,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,16 +1617,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1634,16 +1634,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,16 +1651,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,16 +1668,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/FinalProject/Codebase/datasource/ds.xlsx
+++ b/FinalProject/Codebase/datasource/ds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/Data Science Course - UoT/FinalProject/Codebase/datasource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5CC07-596B-AF42-A886-162DDF5B0394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D7688-04C6-F847-ADB8-63876D6A5625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="70">
   <si>
     <t>JobTitle</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Quantitative Finance</t>
-  </si>
-  <si>
-    <t>major</t>
   </si>
   <si>
     <t>Biostatistics</t>
@@ -668,7 +665,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -691,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -708,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -725,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -742,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -759,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -776,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -793,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -801,16 +798,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -827,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -844,7 +841,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -861,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -875,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -895,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -946,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -963,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -997,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1014,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1065,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1099,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1130,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,7 +1147,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1167,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1184,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1201,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1218,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1269,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1286,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1303,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1317,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,7 +1351,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1371,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1405,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
@@ -1422,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1456,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,7 +1521,7 @@
         <v>54</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1538,7 @@
         <v>54</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1558,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,7 +1563,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
@@ -1575,7 +1572,7 @@
         <v>54</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1580,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
@@ -1592,7 +1589,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1597,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
@@ -1609,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,7 +1614,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
@@ -1626,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1634,7 +1631,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
@@ -1643,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
@@ -1660,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,7 +1665,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
@@ -1677,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
